--- a/src/test/resources/case17/test_case_01.xlsx
+++ b/src/test/resources/case17/test_case_01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例的详细数据" sheetId="1" r:id="rId1"/>
@@ -274,9 +274,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -303,6 +303,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -313,50 +411,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -372,70 +426,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -472,187 +472,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,6 +677,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,30 +720,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -747,23 +738,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,6 +763,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -786,10 +786,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -798,16 +798,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,115 +816,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1321,8 +1321,8 @@
   <sheetPr/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1634,15 +1634,15 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.5583333333333" customWidth="1"/>
     <col min="2" max="2" width="10.1416666666667" customWidth="1"/>
-    <col min="3" max="3" width="21.6416666666667" customWidth="1"/>
+    <col min="3" max="3" width="56.5" customWidth="1"/>
     <col min="4" max="4" width="9.75" customWidth="1"/>
     <col min="5" max="5" width="65.3083333333333" customWidth="1"/>
   </cols>
@@ -1736,7 +1736,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>

--- a/src/test/resources/case17/test_case_01.xlsx
+++ b/src/test/resources/case17/test_case_01.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>CaseId</t>
   </si>
@@ -42,46 +42,10 @@
     <t>api_login</t>
   </si>
   <si>
-    <t>{"userName":"liyinglong","password","111111"}</t>
-  </si>
-  <si>
-    <t>[{"jsonPath":"$.data.code","expected":"200"},{"jsonPath":"$.data.message","expected":"登录成功"}]</t>
-  </si>
-  <si>
-    <t>login_case_2</t>
-  </si>
-  <si>
-    <t>{"userName":"","password",""}</t>
-  </si>
-  <si>
-    <t>login_case_3</t>
-  </si>
-  <si>
-    <t>{"userName":"","password","111111"}</t>
-  </si>
-  <si>
-    <t>login_case_4</t>
-  </si>
-  <si>
-    <t>{"userName":"liyinglong","password",""}</t>
-  </si>
-  <si>
-    <t>login_case_5</t>
-  </si>
-  <si>
-    <t>{"userName":"liyinglong1","password","111113"}</t>
-  </si>
-  <si>
-    <t>login_case_6</t>
-  </si>
-  <si>
-    <t>{"userName":"liyinglong","password","111114"}</t>
-  </si>
-  <si>
-    <t>login_case_7</t>
-  </si>
-  <si>
-    <t>{"userName":"liyinglong1","password","111111"}</t>
+    <t>{"mobile":"18373969442","authCode":"130102"}</t>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.code","expected":"0"},{"jsonPath":"$.success","expected":"True"}]</t>
   </si>
   <si>
     <t>ApiName</t>
@@ -102,13 +66,13 @@
     <t>登录</t>
   </si>
   <si>
-    <t>http://mgt.myhwdztest.com/api/login</t>
+    <t>http://test-scm.shicai56.com/sc56.scm.api//loginByCode</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>[{"name":"Host","value":"mgt.myhwdztest.com"},{"name":"Connection","value":"keep-alive"},{"name":"Cache-Control","value":"no-cache"},{"name":"Origin","value":"http://mgt.myhwdztest.com"},{"name":"Accept-Encoding","value":"gzip, deflate"},{"name":"Referer","value":"http://mgt.myhwdztest.com/"},{"name":"User-Agent","value":"Mozilla/5.0 (Windows NT 6.1; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/77.0.3865.120 Safari/537.36"},{"name":"Content-Type","value":"application/x-www-form-urlencoded; charset=UTF-8"},{"name":"Accept","value":" */*"},{"name":"Cookie","value":"_relogin_id_token=73|00024511-1BEF-4FBF-8B0B-D31DC6F8FF54|liyinglong; JSESSIONID=55B6499526184D210DFAF2747F3FAEE4; isMarket="}]</t>
+    <t>[{"name":"Host","value":" test-scm.shicai56.com"},{"name":"Connection","value":"keep-alive"},{"name":"ontent-Length","value":"44"},{"name":"ontent-Length","value":"application/json, text/plain, */*"},{"name":"x-wx","value":"admin"},{"name":"User-Agent","value":"Mozilla/5.0 (Windows NT 6.1; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/77.0.3865.120 Safari/537.36"},{"name":"Content-Type","value":" application/json;charset=UTF-8"},{"name":"Origin","value":"http://test-scm.shicai56.com"},{"name":"Referer","value":"http://test-scm.shicai56.com/"},{"name":"Accept-Encoding","value":"gzip, deflate"},{"name":"Accept-Language","value":"zh-CN,zh;q=0.9,en-US;q=0.8,en;q=0.7"},{"name":"Cookie","value":"sidebarStatus=opened; temp_token=66dde3ab-3594-4dd9-95bb-1fc95ceedea0"}]</t>
   </si>
   <si>
     <t>SqlId</t>
@@ -132,10 +96,10 @@
     <t>bf</t>
   </si>
   <si>
-    <t>SELECT COUNT(user_name) FROM employee WHERE user_name = 'liyinglong' AND `password`='96e79218965eb72c92a549dd5a330112'</t>
-  </si>
-  <si>
-    <t>[{"COUNT(user_name)":1}]</t>
+    <t>SELECT COUNT(*) FROM ep_emp_oauth WHERE emp_id = 43</t>
+  </si>
+  <si>
+    <t>[{"COUNT(*)":9}]</t>
   </si>
   <si>
     <t>login_sql_2</t>
@@ -149,10 +113,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -179,6 +143,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -186,9 +204,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,37 +234,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,75 +265,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,12 +306,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -360,13 +468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,151 +480,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,21 +515,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -575,17 +524,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,26 +544,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,6 +571,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -656,10 +620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -668,19 +632,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,112 +653,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1186,13 +1150,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.4416666666667" style="7" customWidth="1"/>
     <col min="2" max="2" width="13.775" style="7" customWidth="1"/>
@@ -1238,90 +1202,6 @@
       <c r="F2" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1336,7 +1216,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1353,41 +1233,41 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="2" ht="162" spans="1:5">
+    <row r="2" ht="175.5" spans="1:5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://mgt.myhwdztest.com/api/login" tooltip="http://mgt.myhwdztest.com/api/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://test-scm.shicai56.com/sc56.scm.api//loginByCode" tooltip="http://test-scm.shicai56.com/sc56.scm.api//loginByCode"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1401,7 +1281,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1416,61 +1296,61 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" ht="27" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" ht="27" spans="1:7">
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>

--- a/src/test/resources/case17/test_case_01.xlsx
+++ b/src/test/resources/case17/test_case_01.xlsx
@@ -7,8 +7,8 @@
     <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="测试用例的详细数据" sheetId="1" r:id="rId1"/>
-    <sheet name="接口的基本信息" sheetId="2" r:id="rId2"/>
+    <sheet name="接口的基本信息" sheetId="2" r:id="rId1"/>
+    <sheet name="测试用例的详细数据" sheetId="1" r:id="rId2"/>
     <sheet name="表数据验证" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -18,12 +18,42 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
+    <t>ApiId</t>
+  </si>
+  <si>
+    <t>ApiName</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Headers</t>
+  </si>
+  <si>
+    <t>Auth</t>
+  </si>
+  <si>
+    <t>api_login</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>http://test-scm.shicai56.com/sc56.scm.api//loginByCode</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>[{"name":"Host","value":" test-scm.shicai56.com"},{"name":"Connection","value":"keep-alive"},{"name":"ontent-Length","value":"44"},{"name":"ontent-Length","value":"application/json, text/plain, */*"},{"name":"x-wx","value":"admin"},{"name":"User-Agent","value":"Mozilla/5.0 (Windows NT 6.1; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/77.0.3865.120 Safari/537.36"},{"name":"Content-Type","value":" application/json;charset=UTF-8"},{"name":"Origin","value":"http://test-scm.shicai56.com"},{"name":"Referer","value":"http://test-scm.shicai56.com/"},{"name":"Accept-Encoding","value":"gzip, deflate"},{"name":"Accept-Language","value":"zh-CN,zh;q=0.9,en-US;q=0.8,en;q=0.7"},{"name":"Cookie","value":"sidebarStatus=opened; temp_token=66dde3ab-3594-4dd9-95bb-1fc95ceedea0"}]</t>
+  </si>
+  <si>
     <t>CaseId</t>
   </si>
   <si>
-    <t>ApiId</t>
-  </si>
-  <si>
     <t>RequestData</t>
   </si>
   <si>
@@ -39,40 +69,10 @@
     <t>login_case_1</t>
   </si>
   <si>
-    <t>api_login</t>
-  </si>
-  <si>
     <t>{"mobile":"18373969442","authCode":"130102"}</t>
   </si>
   <si>
     <t>[{"jsonPath":"$.code","expected":"0"},{"jsonPath":"$.success","expected":"True"}]</t>
-  </si>
-  <si>
-    <t>ApiName</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Headers</t>
-  </si>
-  <si>
-    <t>Auth</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>http://test-scm.shicai56.com/sc56.scm.api//loginByCode</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>[{"name":"Host","value":" test-scm.shicai56.com"},{"name":"Connection","value":"keep-alive"},{"name":"ontent-Length","value":"44"},{"name":"ontent-Length","value":"application/json, text/plain, */*"},{"name":"x-wx","value":"admin"},{"name":"User-Agent","value":"Mozilla/5.0 (Windows NT 6.1; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/77.0.3865.120 Safari/537.36"},{"name":"Content-Type","value":" application/json;charset=UTF-8"},{"name":"Origin","value":"http://test-scm.shicai56.com"},{"name":"Referer","value":"http://test-scm.shicai56.com/"},{"name":"Accept-Encoding","value":"gzip, deflate"},{"name":"Accept-Language","value":"zh-CN,zh;q=0.9,en-US;q=0.8,en;q=0.7"},{"name":"Cookie","value":"sidebarStatus=opened; temp_token=66dde3ab-3594-4dd9-95bb-1fc95ceedea0"}]</t>
   </si>
   <si>
     <t>SqlId</t>
@@ -113,9 +113,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -127,6 +127,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -135,11 +143,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,11 +165,101 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,113 +271,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,43 +306,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,139 +480,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,15 +524,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -548,6 +539,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -559,15 +559,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,6 +603,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -620,10 +620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,133 +632,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -781,19 +781,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -801,6 +798,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1158,52 +1158,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.4416666666667" style="7" customWidth="1"/>
-    <col min="2" max="2" width="13.775" style="7" customWidth="1"/>
-    <col min="3" max="3" width="60.875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="20.3" style="7" customWidth="1"/>
-    <col min="5" max="5" width="41.55" style="8" customWidth="1"/>
-    <col min="6" max="6" width="57.2833333333333" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="13.5583333333333" customWidth="1"/>
+    <col min="2" max="2" width="10.1416666666667" customWidth="1"/>
+    <col min="3" max="3" width="56.5" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="72.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:6">
-      <c r="A2" s="11" t="s">
+    <row r="2" ht="175.5" spans="1:5">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="D2" t="s">
         <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://test-scm.shicai56.com/sc56.scm.api//loginByCode" tooltip="http://test-scm.shicai56.com/sc56.scm.api//loginByCode"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1216,59 +1218,57 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.5583333333333" customWidth="1"/>
-    <col min="2" max="2" width="10.1416666666667" customWidth="1"/>
-    <col min="3" max="3" width="56.5" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="72.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.4416666666667" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.775" style="6" customWidth="1"/>
+    <col min="3" max="3" width="60.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="20.3" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.55" style="7" customWidth="1"/>
+    <col min="6" max="6" width="57.2833333333333" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="F1" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" ht="175.5" spans="1:5">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    <row r="2" ht="27" spans="1:6">
+      <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://test-scm.shicai56.com/sc56.scm.api//loginByCode" tooltip="http://test-scm.shicai56.com/sc56.scm.api//loginByCode"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1281,7 +1281,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1299,10 +1299,10 @@
         <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>20</v>
@@ -1322,7 +1322,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>29</v>
